--- a/_lessons/assets/GetisOrd.xlsx
+++ b/_lessons/assets/GetisOrd.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\GIS4DEV.github.io\_lessons\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josephh\Documents\GitHub\GIS4DEV.github.io\_lessons\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="GetisOrd" sheetId="3" r:id="rId1"/>
@@ -248,14 +248,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -593,26 +593,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:V57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.54296875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16.08984375" style="3" customWidth="1"/>
-    <col min="3" max="17" width="11.7265625" style="3" customWidth="1"/>
-    <col min="18" max="18" width="9.1796875" style="4"/>
-    <col min="19" max="19" width="15.453125" style="4" customWidth="1"/>
-    <col min="20" max="20" width="21.1796875" style="4" customWidth="1"/>
-    <col min="21" max="21" width="9.1796875" style="4"/>
-    <col min="22" max="22" width="11.7265625" style="4" customWidth="1"/>
-    <col min="23" max="16384" width="9.1796875" style="4"/>
+    <col min="1" max="1" width="20.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="3" customWidth="1"/>
+    <col min="3" max="17" width="11.7109375" style="3" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" style="4"/>
+    <col min="19" max="19" width="15.42578125" style="4" customWidth="1"/>
+    <col min="20" max="20" width="21.140625" style="4" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" style="4"/>
+    <col min="22" max="22" width="11.7109375" style="4" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B1" s="15" t="s">
         <v>15</v>
       </c>
@@ -623,7 +626,7 @@
       <c r="G1" s="12"/>
       <c r="H1" s="12"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>2</v>
       </c>
@@ -662,7 +665,7 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>-0.35</v>
       </c>
@@ -694,7 +697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>-1.62</v>
       </c>
@@ -726,7 +729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>-0.05</v>
       </c>
@@ -758,7 +761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1.86</v>
       </c>
@@ -790,7 +793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2.17</v>
       </c>
@@ -822,7 +825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1.67</v>
       </c>
@@ -854,7 +857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>0.21</v>
       </c>
@@ -886,7 +889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>-1.03</v>
       </c>
@@ -918,10 +921,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -933,7 +936,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -942,7 +945,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
@@ -951,21 +954,21 @@
         <v>0.35749999999999993</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:22" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="22"/>
+      <c r="C16" s="20"/>
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
       <c r="U16" s="6"/>
       <c r="V16" s="5"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>1</v>
       </c>
@@ -1013,7 +1016,7 @@
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <v>2</v>
       </c>
@@ -1061,7 +1064,7 @@
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <v>3</v>
       </c>
@@ -1109,7 +1112,7 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <v>4</v>
       </c>
@@ -1157,7 +1160,7 @@
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <v>5</v>
       </c>
@@ -1205,7 +1208,7 @@
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
         <v>6</v>
       </c>
@@ -1253,7 +1256,7 @@
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <v>7</v>
       </c>
@@ -1301,7 +1304,7 @@
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
         <v>8</v>
       </c>
@@ -1349,7 +1352,7 @@
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="I25"/>
       <c r="J25"/>
@@ -1365,7 +1368,7 @@
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
         <v>10</v>
       </c>
@@ -1414,7 +1417,7 @@
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
         <v>5</v>
       </c>
@@ -1463,7 +1466,7 @@
       <c r="T27" s="3"/>
       <c r="U27" s="3"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
         <v>11</v>
       </c>
@@ -1512,7 +1515,7 @@
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
         <v>12</v>
       </c>
@@ -1561,7 +1564,7 @@
       <c r="T29" s="3"/>
       <c r="U29" s="3"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
         <v>0</v>
       </c>
@@ -1610,7 +1613,7 @@
       <c r="T30" s="3"/>
       <c r="U30" s="3"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
         <v>16</v>
       </c>
@@ -1659,7 +1662,7 @@
       <c r="T31" s="3"/>
       <c r="U31" s="3"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="s">
         <v>14</v>
       </c>
@@ -1708,7 +1711,7 @@
       <c r="T32" s="3"/>
       <c r="U32" s="3"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
         <v>13</v>
       </c>
@@ -1757,11 +1760,11 @@
       <c r="T33" s="3"/>
       <c r="U33" s="3"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A34" s="20" t="s">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="20"/>
+      <c r="B34" s="21"/>
       <c r="C34" s="7">
         <f>C29*SQRT((C30*C31-C32)/C33)</f>
         <v>1.7189708299694075</v>
@@ -1806,7 +1809,7 @@
       <c r="T34" s="3"/>
       <c r="U34" s="3"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B35" s="9" t="s">
         <v>6</v>
       </c>
@@ -1854,7 +1857,7 @@
       <c r="T35" s="3"/>
       <c r="U35" s="3"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B36" s="16" t="s">
         <v>19</v>
       </c>
@@ -1899,7 +1902,7 @@
       <c r="Q36"/>
       <c r="R36"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B37" s="16" t="s">
         <v>18</v>
       </c>
@@ -1944,7 +1947,7 @@
       <c r="Q37"/>
       <c r="R37"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -1962,11 +1965,11 @@
       <c r="Q38"/>
       <c r="R38"/>
     </row>
-    <row r="39" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="21" t="s">
+    <row r="39" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="21"/>
+      <c r="C39" s="22"/>
       <c r="I39"/>
       <c r="J39"/>
       <c r="K39"/>
@@ -1978,7 +1981,7 @@
       <c r="Q39"/>
       <c r="R39"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B40" s="2">
         <v>1</v>
       </c>
@@ -2023,7 +2026,7 @@
       <c r="Q40"/>
       <c r="R40"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B41" s="2">
         <v>2</v>
       </c>
@@ -2068,7 +2071,7 @@
       <c r="Q41"/>
       <c r="R41"/>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B42" s="2">
         <v>3</v>
       </c>
@@ -2113,7 +2116,7 @@
       <c r="Q42"/>
       <c r="R42"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B43" s="2">
         <v>4</v>
       </c>
@@ -2158,7 +2161,7 @@
       <c r="Q43"/>
       <c r="R43"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B44" s="2">
         <v>5</v>
       </c>
@@ -2203,7 +2206,7 @@
       <c r="Q44"/>
       <c r="R44"/>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B45" s="2">
         <v>6</v>
       </c>
@@ -2248,7 +2251,7 @@
       <c r="Q45"/>
       <c r="R45"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B46" s="1">
         <v>7</v>
       </c>
@@ -2293,7 +2296,7 @@
       <c r="Q46"/>
       <c r="R46"/>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
         <v>8</v>
       </c>
@@ -2338,7 +2341,7 @@
       <c r="Q47"/>
       <c r="R47"/>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B48"/>
       <c r="C48"/>
       <c r="D48"/>
@@ -2357,7 +2360,7 @@
       <c r="Q48"/>
       <c r="R48"/>
     </row>
-    <row r="49" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B49"/>
       <c r="C49"/>
       <c r="D49"/>
@@ -2376,7 +2379,7 @@
       <c r="Q49"/>
       <c r="R49"/>
     </row>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B50"/>
       <c r="C50"/>
       <c r="D50"/>
@@ -2395,7 +2398,7 @@
       <c r="Q50"/>
       <c r="R50"/>
     </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B51"/>
       <c r="C51"/>
       <c r="D51"/>
@@ -2414,7 +2417,7 @@
       <c r="Q51"/>
       <c r="R51"/>
     </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B52"/>
       <c r="C52"/>
       <c r="D52"/>
@@ -2433,7 +2436,7 @@
       <c r="Q52"/>
       <c r="R52"/>
     </row>
-    <row r="53" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B53"/>
       <c r="C53"/>
       <c r="D53"/>
@@ -2452,7 +2455,7 @@
       <c r="Q53"/>
       <c r="R53"/>
     </row>
-    <row r="54" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B54"/>
       <c r="C54"/>
       <c r="D54"/>
@@ -2471,7 +2474,7 @@
       <c r="Q54"/>
       <c r="R54"/>
     </row>
-    <row r="55" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B55"/>
       <c r="C55"/>
       <c r="D55"/>
@@ -2490,7 +2493,7 @@
       <c r="Q55"/>
       <c r="R55"/>
     </row>
-    <row r="56" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B56"/>
       <c r="C56"/>
       <c r="D56"/>
@@ -2509,7 +2512,7 @@
       <c r="Q56"/>
       <c r="R56"/>
     </row>
-    <row r="57" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:18" x14ac:dyDescent="0.25">
       <c r="I57"/>
       <c r="J57"/>
       <c r="K57"/>
@@ -2523,17 +2526,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="B39:C39"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="B39:C39"/>
   </mergeCells>
   <conditionalFormatting sqref="C13:Q16 E12:Q12 C39:H45 C3:Q11 C17:H25">
     <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThan">
@@ -2555,8 +2558,8 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="73" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2564,24 +2567,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.54296875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16.08984375" style="3" customWidth="1"/>
-    <col min="3" max="17" width="11.7265625" style="3" customWidth="1"/>
-    <col min="18" max="18" width="9.1796875" style="4"/>
-    <col min="19" max="19" width="15.453125" style="4" customWidth="1"/>
-    <col min="20" max="20" width="21.1796875" style="4" customWidth="1"/>
-    <col min="21" max="21" width="9.1796875" style="4"/>
-    <col min="22" max="22" width="11.7265625" style="4" customWidth="1"/>
-    <col min="23" max="16384" width="9.1796875" style="4"/>
+    <col min="1" max="1" width="20.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="3" customWidth="1"/>
+    <col min="3" max="17" width="11.7109375" style="3" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" style="4"/>
+    <col min="19" max="19" width="15.42578125" style="4" customWidth="1"/>
+    <col min="20" max="20" width="21.140625" style="4" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" style="4"/>
+    <col min="22" max="22" width="11.7109375" style="4" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B1" s="15" t="s">
         <v>15</v>
       </c>
@@ -2592,7 +2595,7 @@
       <c r="G1" s="12"/>
       <c r="H1" s="12"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>2</v>
       </c>
@@ -2627,7 +2630,7 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>32</v>
       </c>
@@ -2653,7 +2656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>26</v>
       </c>
@@ -2679,7 +2682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>19</v>
       </c>
@@ -2705,7 +2708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>18</v>
       </c>
@@ -2731,7 +2734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>17</v>
       </c>
@@ -2757,7 +2760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>14</v>
       </c>
@@ -2783,10 +2786,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -2798,7 +2801,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -2807,7 +2810,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -2816,21 +2819,21 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:22" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="22"/>
+      <c r="C14" s="20"/>
       <c r="S14" s="5"/>
       <c r="T14" s="5"/>
       <c r="U14" s="6"/>
       <c r="V14" s="5"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>1</v>
       </c>
@@ -2872,7 +2875,7 @@
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>2</v>
       </c>
@@ -2914,7 +2917,7 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>3</v>
       </c>
@@ -2956,7 +2959,7 @@
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <v>4</v>
       </c>
@@ -2998,7 +3001,7 @@
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <v>5</v>
       </c>
@@ -3040,7 +3043,7 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <v>6</v>
       </c>
@@ -3082,7 +3085,7 @@
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="I21"/>
       <c r="J21"/>
@@ -3098,7 +3101,7 @@
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
         <v>10</v>
       </c>
@@ -3141,7 +3144,7 @@
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
         <v>5</v>
       </c>
@@ -3184,7 +3187,7 @@
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
         <v>11</v>
       </c>
@@ -3227,7 +3230,7 @@
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
         <v>12</v>
       </c>
@@ -3270,7 +3273,7 @@
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
         <v>0</v>
       </c>
@@ -3313,7 +3316,7 @@
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
         <v>16</v>
       </c>
@@ -3356,7 +3359,7 @@
       <c r="T27" s="3"/>
       <c r="U27" s="3"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
         <v>14</v>
       </c>
@@ -3399,7 +3402,7 @@
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
         <v>13</v>
       </c>
@@ -3442,11 +3445,11 @@
       <c r="T29" s="3"/>
       <c r="U29" s="3"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A30" s="20" t="s">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="20"/>
+      <c r="B30" s="21"/>
       <c r="C30" s="7">
         <f>C25*SQRT((C26*C27-C28)/C29)</f>
         <v>8.1975606127676794</v>
@@ -3485,7 +3488,7 @@
       <c r="T30" s="3"/>
       <c r="U30" s="3"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B31" s="9" t="s">
         <v>6</v>
       </c>
@@ -3527,7 +3530,7 @@
       <c r="T31" s="3"/>
       <c r="U31" s="3"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B32" s="16" t="s">
         <v>19</v>
       </c>
@@ -3566,7 +3569,7 @@
       <c r="Q32"/>
       <c r="R32"/>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B33" s="16" t="s">
         <v>18</v>
       </c>
@@ -3605,7 +3608,7 @@
       <c r="Q33"/>
       <c r="R33"/>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -3623,11 +3626,11 @@
       <c r="Q34"/>
       <c r="R34"/>
     </row>
-    <row r="35" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="21" t="s">
+    <row r="35" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="21"/>
+      <c r="C35" s="22"/>
       <c r="I35"/>
       <c r="J35"/>
       <c r="K35"/>
@@ -3639,7 +3642,7 @@
       <c r="Q35"/>
       <c r="R35"/>
     </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B36" s="2">
         <v>1</v>
       </c>
@@ -3678,7 +3681,7 @@
       <c r="Q36"/>
       <c r="R36"/>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B37" s="2">
         <v>2</v>
       </c>
@@ -3717,7 +3720,7 @@
       <c r="Q37"/>
       <c r="R37"/>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B38" s="2">
         <v>3</v>
       </c>
@@ -3756,7 +3759,7 @@
       <c r="Q38"/>
       <c r="R38"/>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B39" s="2">
         <v>4</v>
       </c>
@@ -3795,7 +3798,7 @@
       <c r="Q39"/>
       <c r="R39"/>
     </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B40" s="2">
         <v>5</v>
       </c>
@@ -3834,7 +3837,7 @@
       <c r="Q40"/>
       <c r="R40"/>
     </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B41" s="2">
         <v>6</v>
       </c>
@@ -3873,7 +3876,7 @@
       <c r="Q41"/>
       <c r="R41"/>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B42"/>
       <c r="C42"/>
       <c r="D42"/>
@@ -3892,7 +3895,7 @@
       <c r="Q42"/>
       <c r="R42"/>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B43"/>
       <c r="C43"/>
       <c r="D43"/>
@@ -3911,7 +3914,7 @@
       <c r="Q43"/>
       <c r="R43"/>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B44"/>
       <c r="C44"/>
       <c r="D44"/>
@@ -3930,7 +3933,7 @@
       <c r="Q44"/>
       <c r="R44"/>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45"/>
       <c r="C45"/>
       <c r="D45"/>
@@ -3949,7 +3952,7 @@
       <c r="Q45"/>
       <c r="R45"/>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B46"/>
       <c r="C46"/>
       <c r="D46"/>
@@ -3968,7 +3971,7 @@
       <c r="Q46"/>
       <c r="R46"/>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B47"/>
       <c r="C47"/>
       <c r="D47"/>
@@ -3987,7 +3990,7 @@
       <c r="Q47"/>
       <c r="R47"/>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B48"/>
       <c r="C48"/>
       <c r="D48"/>
@@ -4006,7 +4009,7 @@
       <c r="Q48"/>
       <c r="R48"/>
     </row>
-    <row r="49" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B49"/>
       <c r="C49"/>
       <c r="D49"/>
@@ -4025,7 +4028,7 @@
       <c r="Q49"/>
       <c r="R49"/>
     </row>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B50"/>
       <c r="C50"/>
       <c r="D50"/>
@@ -4044,7 +4047,7 @@
       <c r="Q50"/>
       <c r="R50"/>
     </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B51"/>
       <c r="C51"/>
       <c r="D51"/>
@@ -4063,7 +4066,7 @@
       <c r="Q51"/>
       <c r="R51"/>
     </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B52"/>
       <c r="C52"/>
       <c r="D52"/>
@@ -4082,7 +4085,7 @@
       <c r="Q52"/>
       <c r="R52"/>
     </row>
-    <row r="53" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:18" x14ac:dyDescent="0.25">
       <c r="I53"/>
       <c r="J53"/>
       <c r="K53"/>
